--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Lifr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H2">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I2">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J2">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N2">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O2">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P2">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q2">
-        <v>609.13709331183</v>
+        <v>4.069334072279666</v>
       </c>
       <c r="R2">
-        <v>5482.23383980647</v>
+        <v>36.624006650517</v>
       </c>
       <c r="S2">
-        <v>0.09194627950110695</v>
+        <v>0.0005613731604422926</v>
       </c>
       <c r="T2">
-        <v>0.09617554937961544</v>
+        <v>0.0005787376408998062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H3">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I3">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J3">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P3">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q3">
-        <v>751.574909071314</v>
+        <v>6.103959823753</v>
       </c>
       <c r="R3">
-        <v>6764.174181641825</v>
+        <v>54.93563841377699</v>
       </c>
       <c r="S3">
-        <v>0.1134465745301674</v>
+        <v>0.0008420540453572047</v>
       </c>
       <c r="T3">
-        <v>0.1186647974216617</v>
+        <v>0.0008681005898753917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H4">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I4">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J4">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N4">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O4">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P4">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q4">
-        <v>405.913816501524</v>
+        <v>5.777400049182667</v>
       </c>
       <c r="R4">
-        <v>3653.224348513716</v>
+        <v>51.996600442644</v>
       </c>
       <c r="S4">
-        <v>0.06127071497565838</v>
+        <v>0.000797004440319206</v>
       </c>
       <c r="T4">
-        <v>0.06408899528767592</v>
+        <v>0.0008216575035642861</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H5">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I5">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J5">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N5">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O5">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P5">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q5">
-        <v>336.349092879261</v>
+        <v>1.5885603725145</v>
       </c>
       <c r="R5">
-        <v>2018.094557275566</v>
+        <v>9.531362235087</v>
       </c>
       <c r="S5">
-        <v>0.0507702585237058</v>
+        <v>0.0002191452313897327</v>
       </c>
       <c r="T5">
-        <v>0.03540369827654798</v>
+        <v>0.0001506159101360333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H6">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I6">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J6">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N6">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O6">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P6">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q6">
-        <v>446.602968126648</v>
+        <v>2.453743981843</v>
       </c>
       <c r="R6">
-        <v>4019.426713139832</v>
+        <v>22.083695836587</v>
       </c>
       <c r="S6">
-        <v>0.06741254437508944</v>
+        <v>0.0003384991228384931</v>
       </c>
       <c r="T6">
-        <v>0.07051333154022699</v>
+        <v>0.000348969629477577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H7">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I7">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J7">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N7">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O7">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P7">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q7">
-        <v>973.6687684023716</v>
+        <v>862.0542718721725</v>
       </c>
       <c r="R7">
-        <v>8763.018915621346</v>
+        <v>7758.488446849553</v>
       </c>
       <c r="S7">
-        <v>0.1469705616420132</v>
+        <v>0.1189221927907625</v>
       </c>
       <c r="T7">
-        <v>0.1537307935160234</v>
+        <v>0.122600712246614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H8">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I8">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J8">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P8">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q8">
-        <v>1201.346994153539</v>
+        <v>1293.072661998137</v>
       </c>
       <c r="R8">
-        <v>10812.12294738185</v>
+        <v>11637.65395798323</v>
       </c>
       <c r="S8">
-        <v>0.1813374816852756</v>
+        <v>0.178382082683315</v>
       </c>
       <c r="T8">
-        <v>0.1896784950824178</v>
+        <v>0.1838998245473624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H9">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I9">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J9">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N9">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O9">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P9">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q9">
-        <v>648.8286629233739</v>
+        <v>1223.89371436451</v>
       </c>
       <c r="R9">
-        <v>5839.457966310365</v>
+        <v>11015.04342928059</v>
       </c>
       <c r="S9">
-        <v>0.09793752875092469</v>
+        <v>0.1688387019287816</v>
       </c>
       <c r="T9">
-        <v>0.1024423792197994</v>
+        <v>0.1740612464797259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1021,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H10">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I10">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J10">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N10">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O10">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P10">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q10">
-        <v>537.6336634442234</v>
+        <v>336.523183137386</v>
       </c>
       <c r="R10">
-        <v>3225.801980665341</v>
+        <v>2019.139098824316</v>
       </c>
       <c r="S10">
-        <v>0.081153184777307</v>
+        <v>0.04642407812296015</v>
       </c>
       <c r="T10">
-        <v>0.05659066846577503</v>
+        <v>0.03190671653849892</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>36.21453466666666</v>
+      </c>
+      <c r="H11">
+        <v>108.643604</v>
+      </c>
+      <c r="I11">
+        <v>0.5842752538906774</v>
+      </c>
+      <c r="J11">
+        <v>0.5863947871362269</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.353493</v>
+      </c>
+      <c r="N11">
+        <v>43.060479</v>
+      </c>
+      <c r="O11">
+        <v>0.122730165084615</v>
+      </c>
+      <c r="P11">
+        <v>0.1260691413800917</v>
+      </c>
+      <c r="Q11">
+        <v>519.8050698362572</v>
+      </c>
+      <c r="R11">
+        <v>4678.245628526315</v>
+      </c>
+      <c r="S11">
+        <v>0.07170819836485816</v>
+      </c>
+      <c r="T11">
+        <v>0.07392628732402579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.6721045</v>
+      </c>
+      <c r="H12">
+        <v>1.344209</v>
+      </c>
+      <c r="I12">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J12">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.80409633333333</v>
+      </c>
+      <c r="N12">
+        <v>71.41228899999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2035379592047788</v>
+      </c>
+      <c r="P12">
+        <v>0.2090753787995941</v>
+      </c>
+      <c r="Q12">
+        <v>15.99884026406683</v>
+      </c>
+      <c r="R12">
+        <v>95.99304158440098</v>
+      </c>
+      <c r="S12">
+        <v>0.002207073531669817</v>
+      </c>
+      <c r="T12">
+        <v>0.001516895378473534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.6721045</v>
+      </c>
+      <c r="H13">
+        <v>1.344209</v>
+      </c>
+      <c r="I13">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J13">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.705903</v>
+      </c>
+      <c r="N13">
+        <v>107.117709</v>
+      </c>
+      <c r="O13">
+        <v>0.3053048738509329</v>
+      </c>
+      <c r="P13">
+        <v>0.3136109470643028</v>
+      </c>
+      <c r="Q13">
+        <v>23.9980980828635</v>
+      </c>
+      <c r="R13">
+        <v>143.988588497181</v>
+      </c>
+      <c r="S13">
+        <v>0.003310587906053672</v>
+      </c>
+      <c r="T13">
+        <v>0.002275327678332408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.6721045</v>
+      </c>
+      <c r="H14">
+        <v>1.344209</v>
+      </c>
+      <c r="I14">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J14">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.79564933333334</v>
+      </c>
+      <c r="N14">
+        <v>101.386948</v>
+      </c>
+      <c r="O14">
+        <v>0.2889711669362822</v>
+      </c>
+      <c r="P14">
+        <v>0.2968328680576918</v>
+      </c>
+      <c r="Q14">
+        <v>22.71420799735533</v>
+      </c>
+      <c r="R14">
+        <v>136.285247984132</v>
+      </c>
+      <c r="S14">
+        <v>0.003133472579034459</v>
+      </c>
+      <c r="T14">
+        <v>0.002153598421396863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.6721045</v>
+      </c>
+      <c r="H15">
+        <v>1.344209</v>
+      </c>
+      <c r="I15">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J15">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.2924895</v>
+      </c>
+      <c r="N15">
+        <v>18.584979</v>
+      </c>
+      <c r="O15">
+        <v>0.07945583492339121</v>
+      </c>
+      <c r="P15">
+        <v>0.05441166469831967</v>
+      </c>
+      <c r="Q15">
+        <v>6.24552400915275</v>
+      </c>
+      <c r="R15">
+        <v>24.982096036611</v>
+      </c>
+      <c r="S15">
+        <v>0.0008615831213071615</v>
+      </c>
+      <c r="T15">
+        <v>0.0003947705520842175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.6721045</v>
+      </c>
+      <c r="H16">
+        <v>1.344209</v>
+      </c>
+      <c r="I16">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J16">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.353493</v>
+      </c>
+      <c r="N16">
+        <v>43.060479</v>
+      </c>
+      <c r="O16">
+        <v>0.122730165084615</v>
+      </c>
+      <c r="P16">
+        <v>0.1260691413800917</v>
+      </c>
+      <c r="Q16">
+        <v>9.6470472360185</v>
+      </c>
+      <c r="R16">
+        <v>57.882283416111</v>
+      </c>
+      <c r="S16">
+        <v>0.001330830376574598</v>
+      </c>
+      <c r="T16">
+        <v>0.0009146638835503046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H17">
+        <v>74.773157</v>
+      </c>
+      <c r="I17">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J17">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.80409633333333</v>
+      </c>
+      <c r="N17">
+        <v>71.41228899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2035379592047788</v>
+      </c>
+      <c r="P17">
+        <v>0.2090753787995941</v>
+      </c>
+      <c r="Q17">
+        <v>593.3024774584858</v>
+      </c>
+      <c r="R17">
+        <v>5339.722297126372</v>
+      </c>
+      <c r="S17">
+        <v>0.08184731972190419</v>
+      </c>
+      <c r="T17">
+        <v>0.08437903353360675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H18">
+        <v>74.773157</v>
+      </c>
+      <c r="I18">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J18">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.705903</v>
+      </c>
+      <c r="N18">
+        <v>107.117709</v>
+      </c>
+      <c r="O18">
+        <v>0.3053048738509329</v>
+      </c>
+      <c r="P18">
+        <v>0.3136109470643028</v>
+      </c>
+      <c r="Q18">
+        <v>889.9476969485903</v>
+      </c>
+      <c r="R18">
+        <v>8009.529272537312</v>
+      </c>
+      <c r="S18">
+        <v>0.122770149216207</v>
+      </c>
+      <c r="T18">
+        <v>0.1265676942487326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>33.645613</v>
-      </c>
-      <c r="H11">
-        <v>100.936839</v>
-      </c>
-      <c r="I11">
-        <v>0.615153628094272</v>
-      </c>
-      <c r="J11">
-        <v>0.6151536280942719</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>21.21726266666667</v>
-      </c>
-      <c r="N11">
-        <v>63.651788</v>
-      </c>
-      <c r="O11">
-        <v>0.1751674156138409</v>
-      </c>
-      <c r="P11">
-        <v>0.1832246233504832</v>
-      </c>
-      <c r="Q11">
-        <v>713.8678086020146</v>
-      </c>
-      <c r="R11">
-        <v>6424.810277418131</v>
-      </c>
-      <c r="S11">
-        <v>0.1077548712387514</v>
-      </c>
-      <c r="T11">
-        <v>0.1127112918102562</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H19">
+        <v>74.773157</v>
+      </c>
+      <c r="I19">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J19">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>33.79564933333334</v>
+      </c>
+      <c r="N19">
+        <v>101.386948</v>
+      </c>
+      <c r="O19">
+        <v>0.2889711669362822</v>
+      </c>
+      <c r="P19">
+        <v>0.2968328680576918</v>
+      </c>
+      <c r="Q19">
+        <v>842.3357978394263</v>
+      </c>
+      <c r="R19">
+        <v>7581.022180554836</v>
+      </c>
+      <c r="S19">
+        <v>0.1162019879881469</v>
+      </c>
+      <c r="T19">
+        <v>0.1197963656530047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H20">
+        <v>74.773157</v>
+      </c>
+      <c r="I20">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J20">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.2924895</v>
+      </c>
+      <c r="N20">
+        <v>18.584979</v>
+      </c>
+      <c r="O20">
+        <v>0.07945583492339121</v>
+      </c>
+      <c r="P20">
+        <v>0.05441166469831967</v>
+      </c>
+      <c r="Q20">
+        <v>231.6095921014505</v>
+      </c>
+      <c r="R20">
+        <v>1389.657552608703</v>
+      </c>
+      <c r="S20">
+        <v>0.03195102844773416</v>
+      </c>
+      <c r="T20">
+        <v>0.0219595616976005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H21">
+        <v>74.773157</v>
+      </c>
+      <c r="I21">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J21">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.353493</v>
+      </c>
+      <c r="N21">
+        <v>43.060479</v>
+      </c>
+      <c r="O21">
+        <v>0.122730165084615</v>
+      </c>
+      <c r="P21">
+        <v>0.1260691413800917</v>
+      </c>
+      <c r="Q21">
+        <v>357.7519951958003</v>
+      </c>
+      <c r="R21">
+        <v>3219.767956762203</v>
+      </c>
+      <c r="S21">
+        <v>0.04935263722034371</v>
+      </c>
+      <c r="T21">
+        <v>0.05087922054303805</v>
       </c>
     </row>
   </sheetData>
